--- a/chess/pieces.xlsx
+++ b/chess/pieces.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tack/Documents/Source/Repos/Saito-Saito-Saito.github.io/chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D6166A-79D9-E24A-AC09-840B75374AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE1D4C-33E6-9943-A7AB-E3A458D91A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{64A22F86-A254-C144-A3CE-B472475BED4B}"/>
+    <workbookView xWindow="5100" yWindow="460" windowWidth="23440" windowHeight="17040" xr2:uid="{64A22F86-A254-C144-A3CE-B472475BED4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>♙</t>
   </si>
@@ -141,12 +141,95 @@
     <t>キャスリング</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WHITE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BLACK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここ知りたいなら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここをみろ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここ知りたいなら</t>
+    <rPh sb="0" eb="1">
+      <t>ヲミロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[-1, 0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+ LEFT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bg5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Qa7+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rxf4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cxd5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビショップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クイーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,8 +261,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +307,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -281,16 +408,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,8 +580,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="40% - アクセント 3" xfId="3" builtinId="39"/>
+    <cellStyle name="60% - アクセント 2" xfId="2" builtinId="36"/>
     <cellStyle name="60% - アクセント 3" xfId="1" builtinId="40"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4767,6 +5094,909 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DA2DC1-A5A1-A744-AE7D-4F9E4150EFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2647950" y="9855200"/>
+          <a:ext cx="203200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA00FFF-CBA6-E64A-B78D-9A48A40EB9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="9918700"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>102628</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="円/楕円 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D793BAF-E9A0-5E49-AA50-5B2FE1BE5139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="864628" y="13401676"/>
+          <a:ext cx="49771" cy="47624"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACFD269-21CB-344E-95CE-A58D70CED6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="374650" y="13684250"/>
+          <a:ext cx="203200" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="ドーナツ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8AB37E-4DB9-F44C-AC8E-BDDC0FA58C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="17957800"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 17956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="乗算記号 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343711CB-9726-A443-9B5A-6BB01E8A6CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308100" y="17735550"/>
+          <a:ext cx="190500" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13521"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="ドーナツ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD84475-6C11-D041-A79E-F320963BFE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356100" y="17716500"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9842"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="乗算記号 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FE7E3-5B2F-C144-9ADF-EE10F122A634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793750" y="18726150"/>
+          <a:ext cx="190500" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13521"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E528DE-7053-E94A-959B-D6606065496A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="882650" y="18923000"/>
+          <a:ext cx="0" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2919C6FC-321E-0A44-AF10-AACDB44D31C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2165350" y="18815050"/>
+          <a:ext cx="0" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="環状矢印 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7E29C0-557A-9942-AE61-99D91EBA4836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3448050" y="18961100"/>
+          <a:ext cx="520700" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1582"/>
+            <a:gd name="adj2" fmla="val 1142319"/>
+            <a:gd name="adj3" fmla="val 20614007"/>
+            <a:gd name="adj4" fmla="val 10800000"/>
+            <a:gd name="adj5" fmla="val 11972"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED901962-0F42-384A-A0AC-9B931A19359C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2660650" y="14439900"/>
+          <a:ext cx="552450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F15ED-53E7-6A47-AC09-2CF7C90734C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2413000" y="19932650"/>
+          <a:ext cx="0" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCEFC12-6B83-C245-93C7-61284C50CED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="20466050"/>
+          <a:ext cx="0" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EF1823-1C6E-574A-9388-038F0A37DFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="21767800"/>
+          <a:ext cx="139700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5069,10 +6299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37281340-6AB8-564B-9C68-CA0D2C51BACC}">
-  <dimension ref="B3:U43"/>
+  <dimension ref="B3:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="20"/>
@@ -5576,16 +6806,80 @@
       <c r="H37"/>
     </row>
     <row r="38" spans="3:17">
-      <c r="H38"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>3</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="3:17">
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="3:17">
-      <c r="H40"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="17">
+        <v>2</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="3:17" ht="21" thickBot="1">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="3:17">
-      <c r="H41"/>
+      <c r="C41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="K41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="24"/>
     </row>
     <row r="42" spans="3:17">
       <c r="H42"/>
@@ -5593,7 +6887,600 @@
     <row r="43" spans="3:17">
       <c r="H43"/>
     </row>
+    <row r="44" spans="3:17">
+      <c r="C44" s="20"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="20"/>
+    </row>
+    <row r="45" spans="3:17">
+      <c r="C45" s="20"/>
+      <c r="D45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="20"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="20"/>
+      <c r="O46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17">
+      <c r="C47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="O47" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="I49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="2:16" ht="21" thickBot="1">
+      <c r="C51" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="17">
+        <v>8</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="H52" s="34">
+        <v>1</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="17">
+        <v>7</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="28"/>
+      <c r="H53" s="34">
+        <v>2</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="C54" s="33"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="20"/>
+      <c r="H54" s="34">
+        <v>3</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="C56" s="33"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="H57" s="21"/>
+      <c r="I57" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="21"/>
+      <c r="N57" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="36"/>
+      <c r="P57" s="21"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="L58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="C60" s="2"/>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="38"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="38"/>
+    </row>
+    <row r="62" spans="2:16" ht="21" thickBot="1">
+      <c r="C62" s="39"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="41"/>
+    </row>
+    <row r="63" spans="2:16" ht="21" thickTop="1"/>
+    <row r="65" spans="3:20">
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+    </row>
+    <row r="66" spans="3:20">
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="38"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="3:20" ht="21" thickBot="1">
+      <c r="C67" s="39"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+    </row>
+    <row r="68" spans="3:20" ht="22" thickTop="1" thickBot="1"/>
+    <row r="69" spans="3:20">
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="3"/>
+    </row>
+    <row r="70" spans="3:20">
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="2"/>
+      <c r="R70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="3:20">
+      <c r="C71" s="3"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="3"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="3:20">
+      <c r="C72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="3:20">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="3:20">
+      <c r="C74" s="36"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="36"/>
+      <c r="H74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="3:20" ht="21" thickBot="1">
+      <c r="C75" s="36"/>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="I75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="13"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:20">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="H76" s="16"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="3:20" ht="21" thickBot="1">
+      <c r="C77" s="36"/>
+      <c r="E77" s="36"/>
+    </row>
+    <row r="78" spans="3:20">
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="3:20">
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="3:20">
+      <c r="I80" s="2"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="3:17">
+      <c r="H81" s="2"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="3:17">
+      <c r="H82"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="11"/>
+    </row>
+    <row r="84" spans="3:17">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="L84" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+    </row>
+    <row r="85" spans="3:17">
+      <c r="C85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="L85" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+    </row>
+    <row r="86" spans="3:17">
+      <c r="C86" s="36"/>
+      <c r="D86" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="25"/>
+      <c r="L86" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+    </row>
+    <row r="87" spans="3:17">
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="L87" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M53:O53"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
